--- a/biology/Médecine/Ligament_radio-carpien_palmaire/Ligament_radio-carpien_palmaire.xlsx
+++ b/biology/Médecine/Ligament_radio-carpien_palmaire/Ligament_radio-carpien_palmaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament radio-carpien palmaire (ou faisceau radio-carpien du ligament antérieur de l’articulation du poignet) est un ligament de l'articulation radio-carpienne.
 Le ligament radio-carpien palmaire est une large bande membraneuse qui s'étend du rebord antérieur de la facette articulaire de la tête du radius et de la face antérieure du processus styloïde du radius à la face antérieure des os lunatum, triquetrum et capitatum et scaphoïde. 
